--- a/Dataout/OVC_DQRT_Feedback_MATCH.xlsx
+++ b/Dataout/OVC_DQRT_Feedback_MATCH.xlsx
@@ -856,7 +856,7 @@
         <v>45230</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
@@ -920,7 +920,7 @@
         <v>45260</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
@@ -984,7 +984,7 @@
         <v>45291</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
@@ -1048,7 +1048,7 @@
         <v>45322</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J5" t="s">
         <v>41</v>
@@ -1112,7 +1112,7 @@
         <v>45351</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J6" t="s">
         <v>41</v>
@@ -1176,7 +1176,7 @@
         <v>45230</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J7" t="s">
         <v>41</v>
@@ -1240,7 +1240,7 @@
         <v>45260</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J8" t="s">
         <v>41</v>
@@ -1304,7 +1304,7 @@
         <v>45291</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J9" t="s">
         <v>41</v>
@@ -1368,7 +1368,7 @@
         <v>45322</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J10" t="s">
         <v>41</v>
@@ -1432,7 +1432,7 @@
         <v>45351</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J11" t="s">
         <v>41</v>
@@ -1496,7 +1496,7 @@
         <v>45230</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J12" t="s">
         <v>41</v>
@@ -1558,7 +1558,7 @@
         <v>45260</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
@@ -1620,7 +1620,7 @@
         <v>45291</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J14" t="s">
         <v>41</v>
@@ -1682,7 +1682,7 @@
         <v>45322</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -1744,7 +1744,7 @@
         <v>45351</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J16" t="s">
         <v>41</v>
@@ -1806,7 +1806,7 @@
         <v>45230</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J17" t="s">
         <v>41</v>
@@ -1870,7 +1870,7 @@
         <v>45260</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J18" t="s">
         <v>41</v>
@@ -1934,7 +1934,7 @@
         <v>45291</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
@@ -1998,7 +1998,7 @@
         <v>45322</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
@@ -2062,7 +2062,7 @@
         <v>45351</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
@@ -2126,7 +2126,7 @@
         <v>45230</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J22" t="s">
         <v>41</v>
@@ -2190,7 +2190,7 @@
         <v>45260</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J23" t="s">
         <v>41</v>
@@ -2254,7 +2254,7 @@
         <v>45291</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J24" t="s">
         <v>41</v>
@@ -2318,7 +2318,7 @@
         <v>45322</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J25" t="s">
         <v>41</v>
@@ -2382,7 +2382,7 @@
         <v>45351</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
@@ -2446,7 +2446,7 @@
         <v>45230</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J27" t="s">
         <v>41</v>
@@ -2508,7 +2508,7 @@
         <v>45260</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
@@ -2570,7 +2570,7 @@
         <v>45291</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
@@ -2632,7 +2632,7 @@
         <v>45322</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J30" t="s">
         <v>41</v>
@@ -2694,7 +2694,7 @@
         <v>45351</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
@@ -2756,7 +2756,7 @@
         <v>45230</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J32" t="s">
         <v>41</v>
@@ -2820,7 +2820,7 @@
         <v>45260</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J33" t="s">
         <v>41</v>
@@ -2884,7 +2884,7 @@
         <v>45291</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J34" t="s">
         <v>41</v>
@@ -2948,7 +2948,7 @@
         <v>45322</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J35" t="s">
         <v>41</v>
@@ -3012,7 +3012,7 @@
         <v>45351</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J36" t="s">
         <v>41</v>
@@ -3076,7 +3076,7 @@
         <v>45230</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J37" t="s">
         <v>41</v>
@@ -3140,7 +3140,7 @@
         <v>45260</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J38" t="s">
         <v>41</v>
@@ -3204,7 +3204,7 @@
         <v>45291</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
@@ -3268,7 +3268,7 @@
         <v>45322</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J40" t="s">
         <v>41</v>
@@ -3332,7 +3332,7 @@
         <v>45351</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J41" t="s">
         <v>41</v>
@@ -3396,7 +3396,7 @@
         <v>45230</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J42" t="s">
         <v>41</v>
@@ -3458,7 +3458,7 @@
         <v>45260</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J43" t="s">
         <v>41</v>
@@ -3520,7 +3520,7 @@
         <v>45291</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J44" t="s">
         <v>41</v>
@@ -3582,7 +3582,7 @@
         <v>45322</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J45" t="s">
         <v>41</v>
@@ -3644,7 +3644,7 @@
         <v>45351</v>
       </c>
       <c r="I46" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J46" t="s">
         <v>41</v>
@@ -3706,7 +3706,7 @@
         <v>45230</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J47" t="s">
         <v>41</v>
@@ -3770,7 +3770,7 @@
         <v>45260</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J48" t="s">
         <v>41</v>
@@ -3834,7 +3834,7 @@
         <v>45291</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
@@ -3898,7 +3898,7 @@
         <v>45322</v>
       </c>
       <c r="I50" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J50" t="s">
         <v>41</v>
@@ -3962,7 +3962,7 @@
         <v>45351</v>
       </c>
       <c r="I51" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
@@ -4026,7 +4026,7 @@
         <v>45230</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
@@ -4090,7 +4090,7 @@
         <v>45260</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J53" t="s">
         <v>41</v>
@@ -4154,7 +4154,7 @@
         <v>45291</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
@@ -4218,7 +4218,7 @@
         <v>45322</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J55" t="s">
         <v>41</v>
@@ -4282,7 +4282,7 @@
         <v>45351</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J56" t="s">
         <v>41</v>
@@ -4346,7 +4346,7 @@
         <v>45230</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
@@ -4408,7 +4408,7 @@
         <v>45260</v>
       </c>
       <c r="I58" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
@@ -4470,7 +4470,7 @@
         <v>45291</v>
       </c>
       <c r="I59" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J59" t="s">
         <v>41</v>
@@ -4532,7 +4532,7 @@
         <v>45322</v>
       </c>
       <c r="I60" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J60" t="s">
         <v>41</v>
@@ -4594,7 +4594,7 @@
         <v>45351</v>
       </c>
       <c r="I61" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J61" t="s">
         <v>41</v>
@@ -4656,7 +4656,7 @@
         <v>45230</v>
       </c>
       <c r="I62" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
@@ -4720,7 +4720,7 @@
         <v>45260</v>
       </c>
       <c r="I63" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J63" t="s">
         <v>41</v>
@@ -4784,7 +4784,7 @@
         <v>45291</v>
       </c>
       <c r="I64" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J64" t="s">
         <v>41</v>
@@ -4848,7 +4848,7 @@
         <v>45322</v>
       </c>
       <c r="I65" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J65" t="s">
         <v>41</v>
@@ -4912,7 +4912,7 @@
         <v>45351</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
@@ -4976,7 +4976,7 @@
         <v>45230</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J67" t="s">
         <v>41</v>
@@ -5040,7 +5040,7 @@
         <v>45260</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J68" t="s">
         <v>41</v>
@@ -5104,7 +5104,7 @@
         <v>45291</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
@@ -5168,7 +5168,7 @@
         <v>45322</v>
       </c>
       <c r="I70" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
@@ -5232,7 +5232,7 @@
         <v>45351</v>
       </c>
       <c r="I71" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
@@ -5296,7 +5296,7 @@
         <v>45230</v>
       </c>
       <c r="I72" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J72" t="s">
         <v>41</v>
@@ -5358,7 +5358,7 @@
         <v>45260</v>
       </c>
       <c r="I73" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
@@ -5420,7 +5420,7 @@
         <v>45291</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J74" t="s">
         <v>41</v>
@@ -5482,7 +5482,7 @@
         <v>45322</v>
       </c>
       <c r="I75" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J75" t="s">
         <v>41</v>
@@ -5544,7 +5544,7 @@
         <v>45351</v>
       </c>
       <c r="I76" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J76" t="s">
         <v>41</v>
@@ -5606,7 +5606,7 @@
         <v>45230</v>
       </c>
       <c r="I77" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J77" t="s">
         <v>41</v>
@@ -5670,7 +5670,7 @@
         <v>45260</v>
       </c>
       <c r="I78" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J78" t="s">
         <v>41</v>
@@ -5734,7 +5734,7 @@
         <v>45291</v>
       </c>
       <c r="I79" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J79" t="s">
         <v>41</v>
@@ -5798,7 +5798,7 @@
         <v>45322</v>
       </c>
       <c r="I80" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J80" t="s">
         <v>41</v>
@@ -5862,7 +5862,7 @@
         <v>45351</v>
       </c>
       <c r="I81" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J81" t="s">
         <v>41</v>
@@ -5926,7 +5926,7 @@
         <v>45230</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J82" t="s">
         <v>41</v>
@@ -5990,7 +5990,7 @@
         <v>45260</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J83" t="s">
         <v>41</v>
@@ -6054,7 +6054,7 @@
         <v>45291</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
@@ -6118,7 +6118,7 @@
         <v>45322</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
@@ -6182,7 +6182,7 @@
         <v>45351</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J86" t="s">
         <v>41</v>
@@ -6246,7 +6246,7 @@
         <v>45230</v>
       </c>
       <c r="I87" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J87" t="s">
         <v>41</v>
@@ -6308,7 +6308,7 @@
         <v>45260</v>
       </c>
       <c r="I88" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J88" t="s">
         <v>41</v>
@@ -6370,7 +6370,7 @@
         <v>45291</v>
       </c>
       <c r="I89" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J89" t="s">
         <v>41</v>
@@ -6432,7 +6432,7 @@
         <v>45322</v>
       </c>
       <c r="I90" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
@@ -6494,7 +6494,7 @@
         <v>45351</v>
       </c>
       <c r="I91" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J91" t="s">
         <v>41</v>
@@ -6556,7 +6556,7 @@
         <v>45230</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
@@ -6620,7 +6620,7 @@
         <v>45260</v>
       </c>
       <c r="I93" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
@@ -6684,7 +6684,7 @@
         <v>45291</v>
       </c>
       <c r="I94" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J94" t="s">
         <v>41</v>
@@ -6748,7 +6748,7 @@
         <v>45322</v>
       </c>
       <c r="I95" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
@@ -6812,7 +6812,7 @@
         <v>45351</v>
       </c>
       <c r="I96" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J96" t="s">
         <v>41</v>
@@ -6876,7 +6876,7 @@
         <v>45230</v>
       </c>
       <c r="I97" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J97" t="s">
         <v>41</v>
@@ -6940,7 +6940,7 @@
         <v>45260</v>
       </c>
       <c r="I98" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J98" t="s">
         <v>41</v>
@@ -7004,7 +7004,7 @@
         <v>45291</v>
       </c>
       <c r="I99" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J99" t="s">
         <v>41</v>
@@ -7068,7 +7068,7 @@
         <v>45322</v>
       </c>
       <c r="I100" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
@@ -7132,7 +7132,7 @@
         <v>45351</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
@@ -7196,7 +7196,7 @@
         <v>45230</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
@@ -7258,7 +7258,7 @@
         <v>45260</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
@@ -7320,7 +7320,7 @@
         <v>45291</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J104" t="s">
         <v>41</v>
@@ -7382,7 +7382,7 @@
         <v>45322</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J105" t="s">
         <v>41</v>
@@ -7444,7 +7444,7 @@
         <v>45351</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J106" t="s">
         <v>41</v>
@@ -7506,7 +7506,7 @@
         <v>45230</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J107" t="s">
         <v>41</v>
@@ -7570,7 +7570,7 @@
         <v>45260</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J108" t="s">
         <v>41</v>
@@ -7634,7 +7634,7 @@
         <v>45291</v>
       </c>
       <c r="I109" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J109" t="s">
         <v>41</v>
@@ -7698,7 +7698,7 @@
         <v>45322</v>
       </c>
       <c r="I110" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J110" t="s">
         <v>41</v>
@@ -7762,7 +7762,7 @@
         <v>45351</v>
       </c>
       <c r="I111" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J111" t="s">
         <v>41</v>
@@ -7826,7 +7826,7 @@
         <v>45230</v>
       </c>
       <c r="I112" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J112" t="s">
         <v>41</v>
@@ -7890,7 +7890,7 @@
         <v>45260</v>
       </c>
       <c r="I113" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J113" t="s">
         <v>41</v>
@@ -7954,7 +7954,7 @@
         <v>45291</v>
       </c>
       <c r="I114" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J114" t="s">
         <v>41</v>
@@ -8018,7 +8018,7 @@
         <v>45322</v>
       </c>
       <c r="I115" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J115" t="s">
         <v>41</v>
@@ -8082,7 +8082,7 @@
         <v>45351</v>
       </c>
       <c r="I116" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J116" t="s">
         <v>41</v>
@@ -8146,7 +8146,7 @@
         <v>45230</v>
       </c>
       <c r="I117" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J117" t="s">
         <v>41</v>
@@ -8208,7 +8208,7 @@
         <v>45260</v>
       </c>
       <c r="I118" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J118" t="s">
         <v>41</v>
@@ -8270,7 +8270,7 @@
         <v>45291</v>
       </c>
       <c r="I119" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J119" t="s">
         <v>41</v>
@@ -8332,7 +8332,7 @@
         <v>45322</v>
       </c>
       <c r="I120" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J120" t="s">
         <v>41</v>
@@ -8394,7 +8394,7 @@
         <v>45351</v>
       </c>
       <c r="I121" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J121" t="s">
         <v>41</v>
@@ -8456,7 +8456,7 @@
         <v>45230</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J122" t="s">
         <v>41</v>
@@ -8520,7 +8520,7 @@
         <v>45260</v>
       </c>
       <c r="I123" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J123" t="s">
         <v>41</v>
@@ -8584,7 +8584,7 @@
         <v>45291</v>
       </c>
       <c r="I124" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J124" t="s">
         <v>41</v>
@@ -8648,7 +8648,7 @@
         <v>45322</v>
       </c>
       <c r="I125" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J125" t="s">
         <v>41</v>
@@ -8712,7 +8712,7 @@
         <v>45351</v>
       </c>
       <c r="I126" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J126" t="s">
         <v>41</v>
@@ -8776,7 +8776,7 @@
         <v>45230</v>
       </c>
       <c r="I127" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J127" t="s">
         <v>41</v>
@@ -8840,7 +8840,7 @@
         <v>45260</v>
       </c>
       <c r="I128" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J128" t="s">
         <v>41</v>
@@ -8904,7 +8904,7 @@
         <v>45291</v>
       </c>
       <c r="I129" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J129" t="s">
         <v>41</v>
@@ -8968,7 +8968,7 @@
         <v>45322</v>
       </c>
       <c r="I130" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J130" t="s">
         <v>41</v>
@@ -9032,7 +9032,7 @@
         <v>45351</v>
       </c>
       <c r="I131" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J131" t="s">
         <v>41</v>
@@ -9096,7 +9096,7 @@
         <v>45230</v>
       </c>
       <c r="I132" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J132" t="s">
         <v>41</v>
@@ -9158,7 +9158,7 @@
         <v>45260</v>
       </c>
       <c r="I133" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J133" t="s">
         <v>41</v>
@@ -9220,7 +9220,7 @@
         <v>45291</v>
       </c>
       <c r="I134" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J134" t="s">
         <v>41</v>
@@ -9282,7 +9282,7 @@
         <v>45322</v>
       </c>
       <c r="I135" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J135" t="s">
         <v>41</v>
@@ -9344,7 +9344,7 @@
         <v>45351</v>
       </c>
       <c r="I136" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J136" t="s">
         <v>41</v>
@@ -9406,7 +9406,7 @@
         <v>45230</v>
       </c>
       <c r="I137" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J137" t="s">
         <v>41</v>
@@ -9470,7 +9470,7 @@
         <v>45260</v>
       </c>
       <c r="I138" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J138" t="s">
         <v>41</v>
@@ -9534,7 +9534,7 @@
         <v>45291</v>
       </c>
       <c r="I139" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J139" t="s">
         <v>41</v>
@@ -9598,7 +9598,7 @@
         <v>45322</v>
       </c>
       <c r="I140" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J140" t="s">
         <v>41</v>
@@ -9662,7 +9662,7 @@
         <v>45351</v>
       </c>
       <c r="I141" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J141" t="s">
         <v>41</v>
@@ -9726,7 +9726,7 @@
         <v>45230</v>
       </c>
       <c r="I142" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J142" t="s">
         <v>41</v>
@@ -9790,7 +9790,7 @@
         <v>45260</v>
       </c>
       <c r="I143" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J143" t="s">
         <v>41</v>
@@ -9854,7 +9854,7 @@
         <v>45291</v>
       </c>
       <c r="I144" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J144" t="s">
         <v>41</v>
@@ -9918,7 +9918,7 @@
         <v>45322</v>
       </c>
       <c r="I145" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J145" t="s">
         <v>41</v>
@@ -9982,7 +9982,7 @@
         <v>45351</v>
       </c>
       <c r="I146" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J146" t="s">
         <v>41</v>
@@ -10046,7 +10046,7 @@
         <v>45230</v>
       </c>
       <c r="I147" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J147" t="s">
         <v>41</v>
@@ -10108,7 +10108,7 @@
         <v>45260</v>
       </c>
       <c r="I148" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J148" t="s">
         <v>41</v>
@@ -10170,7 +10170,7 @@
         <v>45291</v>
       </c>
       <c r="I149" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J149" t="s">
         <v>41</v>
@@ -10232,7 +10232,7 @@
         <v>45322</v>
       </c>
       <c r="I150" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J150" t="s">
         <v>41</v>
@@ -10294,7 +10294,7 @@
         <v>45351</v>
       </c>
       <c r="I151" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J151" t="s">
         <v>41</v>
@@ -10356,7 +10356,7 @@
         <v>45230</v>
       </c>
       <c r="I152" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J152" t="s">
         <v>41</v>
@@ -10420,7 +10420,7 @@
         <v>45260</v>
       </c>
       <c r="I153" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J153" t="s">
         <v>41</v>
@@ -10484,7 +10484,7 @@
         <v>45291</v>
       </c>
       <c r="I154" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J154" t="s">
         <v>41</v>
@@ -10548,7 +10548,7 @@
         <v>45322</v>
       </c>
       <c r="I155" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J155" t="s">
         <v>41</v>
@@ -10612,7 +10612,7 @@
         <v>45351</v>
       </c>
       <c r="I156" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J156" t="s">
         <v>41</v>
@@ -10676,7 +10676,7 @@
         <v>45230</v>
       </c>
       <c r="I157" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J157" t="s">
         <v>41</v>
@@ -10740,7 +10740,7 @@
         <v>45260</v>
       </c>
       <c r="I158" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J158" t="s">
         <v>41</v>
@@ -10804,7 +10804,7 @@
         <v>45291</v>
       </c>
       <c r="I159" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J159" t="s">
         <v>41</v>
@@ -10868,7 +10868,7 @@
         <v>45322</v>
       </c>
       <c r="I160" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J160" t="s">
         <v>41</v>
@@ -10932,7 +10932,7 @@
         <v>45351</v>
       </c>
       <c r="I161" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J161" t="s">
         <v>41</v>
@@ -10996,7 +10996,7 @@
         <v>45230</v>
       </c>
       <c r="I162" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J162" t="s">
         <v>41</v>
@@ -11058,7 +11058,7 @@
         <v>45260</v>
       </c>
       <c r="I163" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J163" t="s">
         <v>41</v>
@@ -11120,7 +11120,7 @@
         <v>45291</v>
       </c>
       <c r="I164" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J164" t="s">
         <v>41</v>
@@ -11182,7 +11182,7 @@
         <v>45322</v>
       </c>
       <c r="I165" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J165" t="s">
         <v>41</v>
@@ -11244,7 +11244,7 @@
         <v>45351</v>
       </c>
       <c r="I166" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J166" t="s">
         <v>41</v>
@@ -11306,7 +11306,7 @@
         <v>45230</v>
       </c>
       <c r="I167" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J167" t="s">
         <v>41</v>
@@ -11370,7 +11370,7 @@
         <v>45260</v>
       </c>
       <c r="I168" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J168" t="s">
         <v>41</v>
@@ -11434,7 +11434,7 @@
         <v>45291</v>
       </c>
       <c r="I169" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J169" t="s">
         <v>41</v>
@@ -11498,7 +11498,7 @@
         <v>45322</v>
       </c>
       <c r="I170" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J170" t="s">
         <v>41</v>
@@ -11562,7 +11562,7 @@
         <v>45351</v>
       </c>
       <c r="I171" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J171" t="s">
         <v>41</v>
@@ -11626,7 +11626,7 @@
         <v>45230</v>
       </c>
       <c r="I172" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J172" t="s">
         <v>41</v>
@@ -11690,7 +11690,7 @@
         <v>45260</v>
       </c>
       <c r="I173" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J173" t="s">
         <v>41</v>
@@ -11754,7 +11754,7 @@
         <v>45291</v>
       </c>
       <c r="I174" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J174" t="s">
         <v>41</v>
@@ -11818,7 +11818,7 @@
         <v>45322</v>
       </c>
       <c r="I175" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J175" t="s">
         <v>41</v>
@@ -11882,7 +11882,7 @@
         <v>45351</v>
       </c>
       <c r="I176" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J176" t="s">
         <v>41</v>
@@ -11946,7 +11946,7 @@
         <v>45230</v>
       </c>
       <c r="I177" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J177" t="s">
         <v>41</v>
@@ -12008,7 +12008,7 @@
         <v>45260</v>
       </c>
       <c r="I178" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J178" t="s">
         <v>41</v>
@@ -12070,7 +12070,7 @@
         <v>45291</v>
       </c>
       <c r="I179" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J179" t="s">
         <v>41</v>
@@ -12132,7 +12132,7 @@
         <v>45322</v>
       </c>
       <c r="I180" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J180" t="s">
         <v>41</v>
@@ -12194,7 +12194,7 @@
         <v>45351</v>
       </c>
       <c r="I181" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J181" t="s">
         <v>41</v>
@@ -12256,7 +12256,7 @@
         <v>45230</v>
       </c>
       <c r="I182" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J182" t="s">
         <v>41</v>
@@ -12320,7 +12320,7 @@
         <v>45260</v>
       </c>
       <c r="I183" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J183" t="s">
         <v>41</v>
@@ -12384,7 +12384,7 @@
         <v>45291</v>
       </c>
       <c r="I184" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J184" t="s">
         <v>41</v>
@@ -12448,7 +12448,7 @@
         <v>45322</v>
       </c>
       <c r="I185" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J185" t="s">
         <v>41</v>
@@ -12512,7 +12512,7 @@
         <v>45351</v>
       </c>
       <c r="I186" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J186" t="s">
         <v>41</v>
@@ -12576,7 +12576,7 @@
         <v>45230</v>
       </c>
       <c r="I187" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J187" t="s">
         <v>41</v>
@@ -12640,7 +12640,7 @@
         <v>45260</v>
       </c>
       <c r="I188" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J188" t="s">
         <v>41</v>
@@ -12704,7 +12704,7 @@
         <v>45291</v>
       </c>
       <c r="I189" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J189" t="s">
         <v>41</v>
@@ -12768,7 +12768,7 @@
         <v>45322</v>
       </c>
       <c r="I190" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J190" t="s">
         <v>41</v>
@@ -12832,7 +12832,7 @@
         <v>45351</v>
       </c>
       <c r="I191" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J191" t="s">
         <v>41</v>
@@ -12896,7 +12896,7 @@
         <v>45230</v>
       </c>
       <c r="I192" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J192" t="s">
         <v>41</v>
@@ -12958,7 +12958,7 @@
         <v>45260</v>
       </c>
       <c r="I193" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J193" t="s">
         <v>41</v>
@@ -13020,7 +13020,7 @@
         <v>45291</v>
       </c>
       <c r="I194" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J194" t="s">
         <v>41</v>
@@ -13082,7 +13082,7 @@
         <v>45322</v>
       </c>
       <c r="I195" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J195" t="s">
         <v>41</v>
@@ -13144,7 +13144,7 @@
         <v>45351</v>
       </c>
       <c r="I196" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J196" t="s">
         <v>41</v>
@@ -13206,7 +13206,7 @@
         <v>45230</v>
       </c>
       <c r="I197" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J197" t="s">
         <v>41</v>
@@ -13270,7 +13270,7 @@
         <v>45260</v>
       </c>
       <c r="I198" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J198" t="s">
         <v>41</v>
@@ -13334,7 +13334,7 @@
         <v>45291</v>
       </c>
       <c r="I199" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J199" t="s">
         <v>41</v>
@@ -13398,7 +13398,7 @@
         <v>45322</v>
       </c>
       <c r="I200" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J200" t="s">
         <v>41</v>
@@ -13462,7 +13462,7 @@
         <v>45351</v>
       </c>
       <c r="I201" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J201" t="s">
         <v>41</v>
@@ -13526,7 +13526,7 @@
         <v>45230</v>
       </c>
       <c r="I202" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J202" t="s">
         <v>41</v>
@@ -13590,7 +13590,7 @@
         <v>45260</v>
       </c>
       <c r="I203" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
@@ -13654,7 +13654,7 @@
         <v>45291</v>
       </c>
       <c r="I204" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
@@ -13718,7 +13718,7 @@
         <v>45322</v>
       </c>
       <c r="I205" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J205" t="s">
         <v>41</v>
@@ -13782,7 +13782,7 @@
         <v>45351</v>
       </c>
       <c r="I206" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J206" t="s">
         <v>41</v>
@@ -13846,7 +13846,7 @@
         <v>45230</v>
       </c>
       <c r="I207" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J207" t="s">
         <v>41</v>
@@ -13908,7 +13908,7 @@
         <v>45260</v>
       </c>
       <c r="I208" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J208" t="s">
         <v>41</v>
@@ -13970,7 +13970,7 @@
         <v>45291</v>
       </c>
       <c r="I209" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J209" t="s">
         <v>41</v>
@@ -14032,7 +14032,7 @@
         <v>45322</v>
       </c>
       <c r="I210" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J210" t="s">
         <v>41</v>
@@ -14094,7 +14094,7 @@
         <v>45351</v>
       </c>
       <c r="I211" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J211" t="s">
         <v>41</v>
@@ -14156,7 +14156,7 @@
         <v>45230</v>
       </c>
       <c r="I212" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J212" t="s">
         <v>41</v>
@@ -14220,7 +14220,7 @@
         <v>45260</v>
       </c>
       <c r="I213" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J213" t="s">
         <v>41</v>
@@ -14284,7 +14284,7 @@
         <v>45291</v>
       </c>
       <c r="I214" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J214" t="s">
         <v>41</v>
@@ -14348,7 +14348,7 @@
         <v>45322</v>
       </c>
       <c r="I215" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J215" t="s">
         <v>41</v>
@@ -14412,7 +14412,7 @@
         <v>45351</v>
       </c>
       <c r="I216" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J216" t="s">
         <v>41</v>
@@ -14476,7 +14476,7 @@
         <v>45230</v>
       </c>
       <c r="I217" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J217" t="s">
         <v>41</v>
@@ -14540,7 +14540,7 @@
         <v>45260</v>
       </c>
       <c r="I218" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J218" t="s">
         <v>41</v>
@@ -14604,7 +14604,7 @@
         <v>45291</v>
       </c>
       <c r="I219" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J219" t="s">
         <v>41</v>
@@ -14668,7 +14668,7 @@
         <v>45322</v>
       </c>
       <c r="I220" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J220" t="s">
         <v>41</v>
@@ -14732,7 +14732,7 @@
         <v>45351</v>
       </c>
       <c r="I221" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J221" t="s">
         <v>41</v>
@@ -14796,7 +14796,7 @@
         <v>45230</v>
       </c>
       <c r="I222" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J222" t="s">
         <v>41</v>
@@ -14858,7 +14858,7 @@
         <v>45260</v>
       </c>
       <c r="I223" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J223" t="s">
         <v>41</v>
@@ -14920,7 +14920,7 @@
         <v>45291</v>
       </c>
       <c r="I224" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J224" t="s">
         <v>41</v>
@@ -14982,7 +14982,7 @@
         <v>45322</v>
       </c>
       <c r="I225" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J225" t="s">
         <v>41</v>
@@ -15044,7 +15044,7 @@
         <v>45351</v>
       </c>
       <c r="I226" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J226" t="s">
         <v>41</v>
@@ -15106,7 +15106,7 @@
         <v>45230</v>
       </c>
       <c r="I227" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J227" t="s">
         <v>41</v>
@@ -15170,7 +15170,7 @@
         <v>45260</v>
       </c>
       <c r="I228" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J228" t="s">
         <v>41</v>
@@ -15234,7 +15234,7 @@
         <v>45291</v>
       </c>
       <c r="I229" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
@@ -15298,7 +15298,7 @@
         <v>45322</v>
       </c>
       <c r="I230" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J230" t="s">
         <v>41</v>
@@ -15362,7 +15362,7 @@
         <v>45351</v>
       </c>
       <c r="I231" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J231" t="s">
         <v>41</v>
@@ -15426,7 +15426,7 @@
         <v>45230</v>
       </c>
       <c r="I232" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J232" t="s">
         <v>41</v>
@@ -15490,7 +15490,7 @@
         <v>45260</v>
       </c>
       <c r="I233" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J233" t="s">
         <v>41</v>
@@ -15554,7 +15554,7 @@
         <v>45291</v>
       </c>
       <c r="I234" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J234" t="s">
         <v>41</v>
@@ -15618,7 +15618,7 @@
         <v>45322</v>
       </c>
       <c r="I235" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J235" t="s">
         <v>41</v>
@@ -15682,7 +15682,7 @@
         <v>45351</v>
       </c>
       <c r="I236" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J236" t="s">
         <v>41</v>
@@ -15746,7 +15746,7 @@
         <v>45230</v>
       </c>
       <c r="I237" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J237" t="s">
         <v>41</v>
@@ -15808,7 +15808,7 @@
         <v>45260</v>
       </c>
       <c r="I238" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J238" t="s">
         <v>41</v>
@@ -15870,7 +15870,7 @@
         <v>45291</v>
       </c>
       <c r="I239" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J239" t="s">
         <v>41</v>
@@ -15932,7 +15932,7 @@
         <v>45322</v>
       </c>
       <c r="I240" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J240" t="s">
         <v>41</v>
@@ -15994,7 +15994,7 @@
         <v>45351</v>
       </c>
       <c r="I241" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J241" t="s">
         <v>41</v>
@@ -16056,7 +16056,7 @@
         <v>45230</v>
       </c>
       <c r="I242" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J242" t="s">
         <v>41</v>
@@ -16120,7 +16120,7 @@
         <v>45260</v>
       </c>
       <c r="I243" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J243" t="s">
         <v>41</v>
@@ -16184,7 +16184,7 @@
         <v>45291</v>
       </c>
       <c r="I244" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J244" t="s">
         <v>41</v>
@@ -16248,7 +16248,7 @@
         <v>45322</v>
       </c>
       <c r="I245" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J245" t="s">
         <v>41</v>
@@ -16312,7 +16312,7 @@
         <v>45351</v>
       </c>
       <c r="I246" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J246" t="s">
         <v>41</v>
@@ -16376,7 +16376,7 @@
         <v>45230</v>
       </c>
       <c r="I247" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J247" t="s">
         <v>41</v>
@@ -16440,7 +16440,7 @@
         <v>45260</v>
       </c>
       <c r="I248" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J248" t="s">
         <v>41</v>
@@ -16504,7 +16504,7 @@
         <v>45291</v>
       </c>
       <c r="I249" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J249" t="s">
         <v>41</v>
@@ -16568,7 +16568,7 @@
         <v>45322</v>
       </c>
       <c r="I250" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J250" t="s">
         <v>41</v>
@@ -16632,7 +16632,7 @@
         <v>45351</v>
       </c>
       <c r="I251" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J251" t="s">
         <v>41</v>
@@ -16696,7 +16696,7 @@
         <v>45230</v>
       </c>
       <c r="I252" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J252" t="s">
         <v>41</v>
@@ -16758,7 +16758,7 @@
         <v>45260</v>
       </c>
       <c r="I253" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J253" t="s">
         <v>41</v>
@@ -16820,7 +16820,7 @@
         <v>45291</v>
       </c>
       <c r="I254" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J254" t="s">
         <v>41</v>
@@ -16882,7 +16882,7 @@
         <v>45322</v>
       </c>
       <c r="I255" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J255" t="s">
         <v>41</v>
@@ -16944,7 +16944,7 @@
         <v>45351</v>
       </c>
       <c r="I256" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J256" t="s">
         <v>41</v>
@@ -17006,7 +17006,7 @@
         <v>45230</v>
       </c>
       <c r="I257" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J257" t="s">
         <v>41</v>
@@ -17070,7 +17070,7 @@
         <v>45260</v>
       </c>
       <c r="I258" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J258" t="s">
         <v>41</v>
@@ -17134,7 +17134,7 @@
         <v>45291</v>
       </c>
       <c r="I259" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J259" t="s">
         <v>41</v>
@@ -17198,7 +17198,7 @@
         <v>45322</v>
       </c>
       <c r="I260" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J260" t="s">
         <v>41</v>
@@ -17262,7 +17262,7 @@
         <v>45351</v>
       </c>
       <c r="I261" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J261" t="s">
         <v>41</v>
@@ -17326,7 +17326,7 @@
         <v>45230</v>
       </c>
       <c r="I262" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J262" t="s">
         <v>41</v>
@@ -17390,7 +17390,7 @@
         <v>45260</v>
       </c>
       <c r="I263" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J263" t="s">
         <v>41</v>
@@ -17454,7 +17454,7 @@
         <v>45291</v>
       </c>
       <c r="I264" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J264" t="s">
         <v>41</v>
@@ -17518,7 +17518,7 @@
         <v>45322</v>
       </c>
       <c r="I265" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J265" t="s">
         <v>41</v>
@@ -17582,7 +17582,7 @@
         <v>45351</v>
       </c>
       <c r="I266" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J266" t="s">
         <v>41</v>
@@ -17646,7 +17646,7 @@
         <v>45230</v>
       </c>
       <c r="I267" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J267" t="s">
         <v>41</v>
@@ -17708,7 +17708,7 @@
         <v>45260</v>
       </c>
       <c r="I268" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J268" t="s">
         <v>41</v>
@@ -17770,7 +17770,7 @@
         <v>45291</v>
       </c>
       <c r="I269" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J269" t="s">
         <v>41</v>
@@ -17832,7 +17832,7 @@
         <v>45322</v>
       </c>
       <c r="I270" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J270" t="s">
         <v>41</v>
@@ -17894,7 +17894,7 @@
         <v>45351</v>
       </c>
       <c r="I271" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J271" t="s">
         <v>41</v>
@@ -17956,7 +17956,7 @@
         <v>45230</v>
       </c>
       <c r="I272" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J272" t="s">
         <v>41</v>
@@ -18020,7 +18020,7 @@
         <v>45260</v>
       </c>
       <c r="I273" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J273" t="s">
         <v>41</v>
@@ -18084,7 +18084,7 @@
         <v>45291</v>
       </c>
       <c r="I274" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J274" t="s">
         <v>41</v>
@@ -18148,7 +18148,7 @@
         <v>45322</v>
       </c>
       <c r="I275" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J275" t="s">
         <v>41</v>
@@ -18212,7 +18212,7 @@
         <v>45351</v>
       </c>
       <c r="I276" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J276" t="s">
         <v>41</v>
@@ -18276,7 +18276,7 @@
         <v>45230</v>
       </c>
       <c r="I277" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J277" t="s">
         <v>41</v>
@@ -18340,7 +18340,7 @@
         <v>45260</v>
       </c>
       <c r="I278" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J278" t="s">
         <v>41</v>
@@ -18404,7 +18404,7 @@
         <v>45291</v>
       </c>
       <c r="I279" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J279" t="s">
         <v>41</v>
@@ -18468,7 +18468,7 @@
         <v>45322</v>
       </c>
       <c r="I280" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J280" t="s">
         <v>41</v>
@@ -18532,7 +18532,7 @@
         <v>45351</v>
       </c>
       <c r="I281" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J281" t="s">
         <v>41</v>
@@ -18596,7 +18596,7 @@
         <v>45230</v>
       </c>
       <c r="I282" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J282" t="s">
         <v>41</v>
@@ -18658,7 +18658,7 @@
         <v>45260</v>
       </c>
       <c r="I283" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J283" t="s">
         <v>41</v>
@@ -18720,7 +18720,7 @@
         <v>45291</v>
       </c>
       <c r="I284" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J284" t="s">
         <v>41</v>
@@ -18782,7 +18782,7 @@
         <v>45322</v>
       </c>
       <c r="I285" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J285" t="s">
         <v>41</v>
@@ -18844,7 +18844,7 @@
         <v>45351</v>
       </c>
       <c r="I286" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J286" t="s">
         <v>41</v>
@@ -18906,7 +18906,7 @@
         <v>45230</v>
       </c>
       <c r="I287" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J287" t="s">
         <v>41</v>
@@ -18970,7 +18970,7 @@
         <v>45260</v>
       </c>
       <c r="I288" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J288" t="s">
         <v>41</v>
@@ -19034,7 +19034,7 @@
         <v>45291</v>
       </c>
       <c r="I289" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J289" t="s">
         <v>41</v>
@@ -19098,7 +19098,7 @@
         <v>45322</v>
       </c>
       <c r="I290" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J290" t="s">
         <v>41</v>
@@ -19162,7 +19162,7 @@
         <v>45351</v>
       </c>
       <c r="I291" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J291" t="s">
         <v>41</v>
@@ -19226,7 +19226,7 @@
         <v>45230</v>
       </c>
       <c r="I292" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J292" t="s">
         <v>41</v>
@@ -19290,7 +19290,7 @@
         <v>45260</v>
       </c>
       <c r="I293" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J293" t="s">
         <v>41</v>
@@ -19354,7 +19354,7 @@
         <v>45291</v>
       </c>
       <c r="I294" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J294" t="s">
         <v>41</v>
@@ -19418,7 +19418,7 @@
         <v>45322</v>
       </c>
       <c r="I295" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J295" t="s">
         <v>41</v>
@@ -19482,7 +19482,7 @@
         <v>45351</v>
       </c>
       <c r="I296" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J296" t="s">
         <v>41</v>
@@ -19546,7 +19546,7 @@
         <v>45230</v>
       </c>
       <c r="I297" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J297" t="s">
         <v>41</v>
@@ -19608,7 +19608,7 @@
         <v>45260</v>
       </c>
       <c r="I298" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J298" t="s">
         <v>41</v>
@@ -19670,7 +19670,7 @@
         <v>45291</v>
       </c>
       <c r="I299" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J299" t="s">
         <v>41</v>
@@ -19732,7 +19732,7 @@
         <v>45322</v>
       </c>
       <c r="I300" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J300" t="s">
         <v>41</v>
@@ -19794,7 +19794,7 @@
         <v>45351</v>
       </c>
       <c r="I301" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J301" t="s">
         <v>41</v>
@@ -19856,7 +19856,7 @@
         <v>45230</v>
       </c>
       <c r="I302" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J302" t="s">
         <v>41</v>
@@ -19920,7 +19920,7 @@
         <v>45260</v>
       </c>
       <c r="I303" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J303" t="s">
         <v>41</v>
@@ -19984,7 +19984,7 @@
         <v>45291</v>
       </c>
       <c r="I304" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J304" t="s">
         <v>41</v>
@@ -20048,7 +20048,7 @@
         <v>45322</v>
       </c>
       <c r="I305" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J305" t="s">
         <v>41</v>
@@ -20112,7 +20112,7 @@
         <v>45351</v>
       </c>
       <c r="I306" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J306" t="s">
         <v>41</v>
@@ -20176,7 +20176,7 @@
         <v>45230</v>
       </c>
       <c r="I307" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J307" t="s">
         <v>41</v>
@@ -20240,7 +20240,7 @@
         <v>45260</v>
       </c>
       <c r="I308" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J308" t="s">
         <v>41</v>
@@ -20304,7 +20304,7 @@
         <v>45291</v>
       </c>
       <c r="I309" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J309" t="s">
         <v>41</v>
@@ -20368,7 +20368,7 @@
         <v>45322</v>
       </c>
       <c r="I310" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J310" t="s">
         <v>41</v>
@@ -20432,7 +20432,7 @@
         <v>45351</v>
       </c>
       <c r="I311" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J311" t="s">
         <v>41</v>
@@ -20496,7 +20496,7 @@
         <v>45230</v>
       </c>
       <c r="I312" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J312" t="s">
         <v>41</v>
@@ -20558,7 +20558,7 @@
         <v>45260</v>
       </c>
       <c r="I313" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J313" t="s">
         <v>41</v>
@@ -20620,7 +20620,7 @@
         <v>45291</v>
       </c>
       <c r="I314" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J314" t="s">
         <v>41</v>
@@ -20682,7 +20682,7 @@
         <v>45322</v>
       </c>
       <c r="I315" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J315" t="s">
         <v>41</v>
@@ -20744,7 +20744,7 @@
         <v>45351</v>
       </c>
       <c r="I316" s="1" t="n">
-        <v>45429</v>
+        <v>45442</v>
       </c>
       <c r="J316" t="s">
         <v>41</v>
